--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1401,10 +1413,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1448,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1494,28 +1506,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1863,10 +1875,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1910,28 +1922,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1956,28 +1968,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2065,10 +2077,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2112,28 +2124,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2158,28 +2170,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2296,10 +2308,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2343,28 +2355,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2389,28 +2401,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2585,10 +2597,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2632,28 +2644,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2678,28 +2690,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2961,10 +2973,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3008,28 +3020,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3054,28 +3066,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3192,10 +3204,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3239,28 +3251,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3285,28 +3297,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3568,10 +3580,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3615,28 +3627,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3661,28 +3673,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3799,10 +3811,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3846,28 +3858,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3892,28 +3904,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4059,10 +4071,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4106,28 +4118,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4152,28 +4164,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4261,10 +4273,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4308,28 +4320,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4354,28 +4366,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4463,10 +4475,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4510,28 +4522,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4556,28 +4568,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4822,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4869,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4915,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5215,10 +5227,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5262,28 +5274,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5308,28 +5320,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5446,10 +5458,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5493,28 +5505,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5539,28 +5551,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5677,10 +5689,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5724,28 +5736,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5770,28 +5782,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5937,10 +5949,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5984,28 +5996,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6030,28 +6042,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6139,10 +6151,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6186,28 +6198,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6232,28 +6244,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6370,10 +6382,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6417,28 +6429,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6463,28 +6475,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6601,10 +6613,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6648,28 +6660,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6694,28 +6706,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6774,10 +6786,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6821,28 +6833,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6867,28 +6879,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6947,10 +6959,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
